--- a/model.xlsx
+++ b/model.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D1756-323A-4CA5-BE27-76984637BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB401981-0E0A-4754-9B81-89C7F1AC0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="map" sheetId="7" r:id="rId1"/>
+    <sheet name="userSpawn" sheetId="2" r:id="rId2"/>
+    <sheet name="userMovement" sheetId="9" r:id="rId3"/>
+    <sheet name="npcSpawn" sheetId="4" r:id="rId4"/>
+    <sheet name="npcMovement" sheetId="8" r:id="rId5"/>
+    <sheet name="motion" sheetId="6" r:id="rId6"/>
+    <sheet name="screen" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,75 +52,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>moveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대체력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnLocationID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스폰위치(ID)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CameraFOV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>criminal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야각(°)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크기(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도(m/s)</t>
+    <t>posX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_cop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_cri_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_cri_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_cri_3</t>
+  </si>
+  <si>
+    <t>spawn_cri_4</t>
+  </si>
+  <si>
+    <t>spawn_cri_5</t>
+  </si>
+  <si>
+    <t>spawn_cri_6</t>
+  </si>
+  <si>
+    <t>spawn_cri_7</t>
+  </si>
+  <si>
+    <t>spawn_cri_8</t>
+  </si>
+  <si>
+    <t>(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_npc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_npc_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawn_npc_3</t>
+  </si>
+  <si>
+    <t>spawn_npc_4</t>
+  </si>
+  <si>
+    <t>spawn_npc_5</t>
+  </si>
+  <si>
+    <t>spawn_npc_6</t>
+  </si>
+  <si>
+    <t>spawn_npc_7</t>
+  </si>
+  <si>
+    <t>spawn_npc_8</t>
+  </si>
+  <si>
+    <t>spawn_npc_9</t>
+  </si>
+  <si>
+    <t>spawn_npc_10</t>
+  </si>
+  <si>
+    <t>spawn_npc_11</t>
+  </si>
+  <si>
+    <t>spawn_npc_12</t>
+  </si>
+  <si>
+    <t>moveInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotateAngleMin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotateAngleMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotateAngleMinCollision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_stat_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향을 바꾸지 않고 움직이는 최소 거리 (m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 변경 시 최소 회전 각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 변경 시 최대 회전 각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조물에 충돌 시 최소 회전 각도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 주기(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 이동속도(m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달릴 때의 속도(m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_stat_cop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_stat_criminal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotateSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시점 회전 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>focusSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준/신고 시의 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(= screenX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_2_astonished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_3_frightened</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_1_surrender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_4_pray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anim_5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심 x좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심 y좌표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정육면체의 동서남북 4개의 동일 크기 화면을 가짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenCycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전광판 위치는 맵 한가운데, 경찰서 위치?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,18 +354,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,26 +388,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,218 +767,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD358E7-BE76-426B-AD20-9E0F90631E54}">
-  <dimension ref="A1:P30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89A6E33-74AB-432E-820A-D95A9C23B8DE}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="14" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="4" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>90</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>70</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3">
-        <v>70</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -756,17 +868,8 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -774,17 +877,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -792,17 +886,8 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -810,17 +895,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -828,17 +904,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -846,17 +913,288 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75E601-4AC7-4EB5-BF9B-9675591DFF93}">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>90</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -867,14 +1205,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -885,14 +1217,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -903,14 +1229,8 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -921,14 +1241,8 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -939,14 +1253,8 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -957,14 +1265,8 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -975,14 +1277,8 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -993,14 +1289,8 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1011,14 +1301,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1029,156 +1313,1173 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042ED20A-60F2-4190-B8C1-C417D858F779}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65364702-7DE0-4578-8BA7-C385602F040A}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC40F8BA-4693-4211-958E-8A8A833859F8}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="27.25" customWidth="1"/>
+    <col min="5" max="5" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5">
+        <v>180</v>
+      </c>
+      <c r="E4" s="5">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA95300-6264-4DBE-878E-9107A2B7158A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
+    <col min="2" max="5" width="14.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="9"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9A0E84-0BAD-459B-98EE-CE21F7A1FFD4}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="13.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5" customWidth="1"/>
+    <col min="9" max="9" width="41.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2">
+        <v>150</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/model.xlsx
+++ b/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김주호\Desktop\24-1\종설\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB401981-0E0A-4754-9B81-89C7F1AC0E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A9C227-6D06-4D30-8DCA-0BE7B22FC6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3E65C42D-4226-4DF5-90C2-11C802B7A5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="userMovement" sheetId="9" r:id="rId3"/>
     <sheet name="npcSpawn" sheetId="4" r:id="rId4"/>
     <sheet name="npcMovement" sheetId="8" r:id="rId5"/>
-    <sheet name="motion" sheetId="6" r:id="rId6"/>
-    <sheet name="screen" sheetId="5" r:id="rId7"/>
+    <sheet name="screen" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,18 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>focusSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조준/신고 시의 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>motionTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>posY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,26 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anim_2_astonished</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_3_frightened</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_1_surrender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_4_pray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anim_5_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중심 x좌표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +288,18 @@
   </si>
   <si>
     <t>전광판 위치는 맵 한가운데, 경찰서 위치?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 이동속도(m/s)*10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 시점(각도)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,22 +395,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC75E601-4AC7-4EB5-BF9B-9675591DFF93}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1325,14 +1292,17 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="4" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,23 +1319,23 @@
         <v>50</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1388,92 +1358,108 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>60</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1893,7 +1879,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1904,7 +1890,7 @@
     <col min="4" max="4" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="31.875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,23 +1917,23 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1975,23 +1961,27 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>180</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>90</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -2186,91 +2176,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA95300-6264-4DBE-878E-9107A2B7158A}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.75" style="1" customWidth="1"/>
-    <col min="2" max="5" width="14.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9A0E84-0BAD-459B-98EE-CE21F7A1FFD4}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
@@ -2293,46 +2200,46 @@
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>73</v>
+      <c r="I2" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2360,7 +2267,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -2380,106 +2287,6 @@
       <c r="G4" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
